--- a/pinelabs_bitbucket_inventory.xlsx
+++ b/pinelabs_bitbucket_inventory.xlsx
@@ -605,13 +605,25 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>1. feature/remsv1.24
-2. main</t>
+          <t>1. bugfix/nsdsd
+2. feature/remsv1.24
+3. feature/v.4.5
+4. feature/v1.33
+5. hotfix/vv222
+6. main</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr"/>
-      <c r="G4" s="1" t="inlineStr"/>
-      <c r="H4" s="1" t="inlineStr"/>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>1. 4.5</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>1. 4.5</t>
+        </is>
+      </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
           <t>1. Saurabh Khan:admin</t>
